--- a/Data/input1.xlsx
+++ b/Data/input1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\PyCharm\Anurag\PerRoad44AutomationTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3FB507-5564-4B49-A824-F0ECBD09AF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF2E6F-5470-48A9-9EC9-78B5C347EFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>target percentile</t>
   </si>
   <si>
-    <t>position medium</t>
-  </si>
-  <si>
     <t>vertical strain</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>coefficient of variation thickness</t>
+  </si>
+  <si>
+    <t>position middle</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -930,7 +930,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -948,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -966,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -984,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1080,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1092,13 +1092,13 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1167,7 +1167,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1359,7 +1359,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -1377,7 +1377,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -1395,7 +1395,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1491,7 +1491,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1503,13 +1503,13 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -1578,7 +1578,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1632,13 +1632,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
@@ -1725,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76">
         <v>20</v>
@@ -1743,7 +1743,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
@@ -1758,7 +1758,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -1851,7 +1851,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -1863,13 +1863,13 @@
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -1920,7 +1920,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -1938,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -2130,7 +2130,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
@@ -2148,7 +2148,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C105">
         <v>20</v>
@@ -2166,7 +2166,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -2184,7 +2184,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -2280,7 +2280,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,13 +2292,13 @@
         <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -2367,7 +2367,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2541,7 +2541,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>20</v>
@@ -2559,7 +2559,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C133" s="4">
         <v>20</v>
@@ -2577,7 +2577,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>19</v>
@@ -2595,7 +2595,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C135" s="4">
         <v>6</v>
@@ -2691,7 +2691,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
@@ -2778,7 +2778,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -2832,13 +2832,13 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D152" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E152" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>20</v>
@@ -2925,7 +2925,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C159" s="4">
         <v>20</v>
@@ -2943,7 +2943,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>19</v>
@@ -2958,7 +2958,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C161" s="4">
         <v>6</v>
@@ -3051,7 +3051,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3063,13 +3063,13 @@
         <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3120,7 +3120,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -3138,7 +3138,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3330,7 +3330,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>20</v>
@@ -3348,7 +3348,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C188" s="4">
         <v>20</v>
@@ -3366,7 +3366,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>19</v>
@@ -3384,7 +3384,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C190" s="4">
         <v>6</v>
@@ -3480,7 +3480,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -3492,13 +3492,13 @@
         <v>23</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -3549,7 +3549,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -3567,7 +3567,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>20</v>
@@ -3759,7 +3759,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C216" s="4">
         <v>20</v>
@@ -3777,7 +3777,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>19</v>
@@ -3795,7 +3795,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C218" s="4">
         <v>6</v>
@@ -3891,7 +3891,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -3903,13 +3903,13 @@
         <v>23</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -3960,7 +3960,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -3978,7 +3978,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -4032,13 +4032,13 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D235" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E235" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -4107,7 +4107,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>20</v>
@@ -4125,7 +4125,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C242" s="4">
         <v>20</v>
@@ -4143,7 +4143,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>19</v>
@@ -4158,7 +4158,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C244" s="4">
         <v>6</v>
@@ -4251,7 +4251,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -4263,13 +4263,13 @@
         <v>23</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -4320,7 +4320,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
@@ -4338,7 +4338,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
@@ -4530,7 +4530,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>20</v>
@@ -4548,7 +4548,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C271" s="4">
         <v>20</v>
@@ -4566,7 +4566,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>19</v>
@@ -4584,7 +4584,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C273" s="4">
         <v>6</v>
@@ -4680,7 +4680,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -4692,13 +4692,13 @@
         <v>23</v>
       </c>
       <c r="C281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -4749,7 +4749,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
@@ -4767,7 +4767,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -4941,7 +4941,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>20</v>
@@ -4959,7 +4959,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C299" s="4">
         <v>20</v>
@@ -4977,7 +4977,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>19</v>
@@ -4995,7 +4995,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C301" s="4">
         <v>6</v>
@@ -5091,7 +5091,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -5103,13 +5103,13 @@
         <v>23</v>
       </c>
       <c r="C309" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D309" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E309" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -5160,7 +5160,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C313" t="s">
         <v>9</v>
@@ -5178,7 +5178,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -5232,13 +5232,13 @@
         <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D318" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E318" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -5307,7 +5307,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>20</v>
@@ -5325,7 +5325,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C325" s="4">
         <v>20</v>
@@ -5343,7 +5343,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>19</v>
@@ -5358,7 +5358,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C327" s="4">
         <v>6</v>
@@ -5451,7 +5451,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -5463,13 +5463,13 @@
         <v>23</v>
       </c>
       <c r="C335" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E335" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -5520,7 +5520,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C339" t="s">
         <v>9</v>
@@ -5538,7 +5538,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
@@ -5731,7 +5731,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>20</v>
@@ -5749,7 +5749,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C354" s="4">
         <v>20</v>
@@ -5767,7 +5767,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>19</v>
@@ -5785,7 +5785,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C356" s="4">
         <v>6</v>
@@ -5882,7 +5882,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -5894,13 +5894,13 @@
         <v>23</v>
       </c>
       <c r="C364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -5952,7 +5952,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C368" t="s">
         <v>9</v>
@@ -5970,7 +5970,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -6146,7 +6146,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>20</v>
@@ -6164,7 +6164,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C382" s="4">
         <v>20</v>
@@ -6182,7 +6182,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>19</v>
@@ -6200,7 +6200,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C384" s="4">
         <v>6</v>
@@ -6297,7 +6297,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -6309,13 +6309,13 @@
         <v>23</v>
       </c>
       <c r="C392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -6367,7 +6367,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C396" t="s">
         <v>9</v>
@@ -6385,7 +6385,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -6440,13 +6440,13 @@
         <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D401" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E401" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -6516,7 +6516,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>20</v>
@@ -6534,7 +6534,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C408" s="4">
         <v>20</v>
@@ -6552,7 +6552,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>19</v>
@@ -6567,7 +6567,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C410" s="4">
         <v>6</v>
@@ -6661,7 +6661,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -6673,13 +6673,13 @@
         <v>23</v>
       </c>
       <c r="C418" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D418" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E418" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -6731,7 +6731,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C422" t="s">
         <v>9</v>
@@ -6749,7 +6749,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6767,7 +6767,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -6800,7 +6800,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C427">
         <v>5000</v>
@@ -6818,7 +6818,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C428">
         <v>10</v>
@@ -6836,7 +6836,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C429">
         <v>90</v>
@@ -6854,7 +6854,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C430">
         <v>136</v>
@@ -6872,7 +6872,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C431">
         <v>4</v>
@@ -6890,7 +6890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C432">
         <v>50</v>
@@ -6914,7 +6914,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -6923,7 +6923,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C435">
         <v>50.43</v>
@@ -6941,7 +6941,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C436">
         <v>40</v>
@@ -6959,7 +6959,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C437">
         <v>10</v>
@@ -6977,7 +6977,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -7010,16 +7010,16 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
+        <v>48</v>
+      </c>
+      <c r="C441" t="s">
         <v>49</v>
       </c>
-      <c r="C441" t="s">
-        <v>50</v>
-      </c>
       <c r="D441" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E441" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -7028,7 +7028,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -7037,7 +7037,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C443">
         <v>1.2</v>
@@ -7055,7 +7055,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C444">
         <v>9.4</v>
@@ -7073,7 +7073,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C445">
         <v>3.3</v>
@@ -7091,7 +7091,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C446">
         <v>1.2</v>
@@ -7109,7 +7109,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C447">
         <v>1.2</v>
@@ -7127,7 +7127,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C448">
         <v>68.900000000000006</v>
@@ -7145,7 +7145,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C449">
         <v>1.2</v>
@@ -7163,7 +7163,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C450">
         <v>1.2</v>
@@ -7181,7 +7181,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C451">
         <v>1.2</v>
@@ -7199,7 +7199,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C452">
         <f>100-SUM(C443:C451)</f>
@@ -7226,7 +7226,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -7235,7 +7235,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -7244,7 +7244,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C456">
         <v>100</v>
@@ -7268,7 +7268,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -7277,7 +7277,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C459" t="str">
         <f>CONCATENATE("demo",C2,".xls")</f>
@@ -7304,7 +7304,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
@@ -7313,7 +7313,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C462" t="str">
         <f>CONCATENATE("report_",C459)</f>
@@ -7334,7 +7334,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
